--- a/Data/EC/NIT-9011017776.xlsx
+++ b/Data/EC/NIT-9011017776.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{848A60FA-4A2B-4DD0-9378-53779A00C1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16E6C536-79B1-49DB-9268-6325E7CDE0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A6D52E8E-58EF-40A8-96E3-112B072A639B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2CC045A-D6E6-4ED5-84C7-87310FADA95D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,31 +65,49 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73162985</t>
+  </si>
+  <si>
+    <t>EDGARDO JESUS SALGUEDO ALVAREZ</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>73149628</t>
+  </si>
+  <si>
+    <t>ANTONIO PARRA CARREAZO</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
     <t>73213631</t>
   </si>
   <si>
     <t>MIGUEL ALBERTO PUERTA SETIEN</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>73162985</t>
-  </si>
-  <si>
-    <t>EDGARDO JESUS SALGUEDO ALVAREZ</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
   </si>
   <si>
     <t>73070883</t>
@@ -139,7 +157,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051645CC-E82A-4F62-F72E-2DDC9386540D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766AA859-BCEE-5A35-BCA8-AF663C93657D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,32 +878,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEEB949-3202-4468-9C05-5CF70C6C0241}">
-  <dimension ref="B2:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64E2A51-1778-4BCF-A0E1-473D0A9ECFB8}">
+  <dimension ref="B2:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -894,7 +912,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -905,7 +923,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -916,7 +934,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -927,10 +945,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -943,8 +961,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -959,15 +977,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>377116</v>
+        <v>602480</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -975,27 +993,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1015,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1038,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1047,18 +1065,18 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>36341</v>
@@ -1070,18 +1088,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>36341</v>
@@ -1093,7 +1111,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1116,15 +1134,15 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
@@ -1139,172 +1157,310 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="22" t="s">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="24">
+      <c r="E26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="18">
+        <v>27861</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="24">
         <v>30666</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G32" s="24">
         <v>1000000</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="H31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="H37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="H38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H37:J37"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9011017776.xlsx
+++ b/Data/EC/NIT-9011017776.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16E6C536-79B1-49DB-9268-6325E7CDE0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB40402A-3E8A-434A-9E35-B3F5E7EC136C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2CC045A-D6E6-4ED5-84C7-87310FADA95D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{541E66FA-7997-42EB-8C62-36A24024645B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,43 +71,25 @@
     <t>EDGARDO JESUS SALGUEDO ALVAREZ</t>
   </si>
   <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>73213631</t>
+  </si>
+  <si>
+    <t>MIGUEL ALBERTO PUERTA SETIEN</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
     <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>73149628</t>
-  </si>
-  <si>
-    <t>ANTONIO PARRA CARREAZO</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>73213631</t>
-  </si>
-  <si>
-    <t>MIGUEL ALBERTO PUERTA SETIEN</t>
   </si>
   <si>
     <t>73070883</t>
@@ -157,7 +139,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +194,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -225,9 +209,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,23 +409,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,10 +453,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766AA859-BCEE-5A35-BCA8-AF663C93657D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90CE8D19-E432-4B87-CE9B-BD6DF54EC881}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,32 +860,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64E2A51-1778-4BCF-A0E1-473D0A9ECFB8}">
-  <dimension ref="B2:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6CECC6-C9D0-4404-B46C-9085E497440D}">
+  <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -912,7 +894,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -923,7 +905,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -934,7 +916,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -945,10 +927,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -961,8 +943,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -977,15 +959,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>602480</v>
+        <v>377116</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -993,27 +975,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1033,16 +1015,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1056,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27861</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1065,18 +1047,18 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>36341</v>
@@ -1088,7 +1070,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1099,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>36341</v>
@@ -1111,15 +1093,15 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1134,7 +1116,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1157,310 +1139,172 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F24" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F25" s="18">
-        <v>36341</v>
+        <v>27861</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="15" t="s">
+    <row r="26" spans="2:10">
+      <c r="B26" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G26" s="18">
+      <c r="F26" s="24">
+        <v>30666</v>
+      </c>
+      <c r="G26" s="24">
         <v>1000000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="18">
-        <v>27861</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="24">
-        <v>30666</v>
-      </c>
-      <c r="G32" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="H38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="H31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="H32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H31:J31"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
